--- a/_support-files/wedidit7-data-schema.xlsx
+++ b/_support-files/wedidit7-data-schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonspiller/Dropbox/projects/WDI/projects/unit-4-we-did-it-7/wedidit7/_support-files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75669548-340B-9447-9E46-877C154720CA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6914341E-EEB0-734B-A461-2248AEB994CB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
     <t>auto</t>
   </si>
   <si>
-    <t>fk - user_id</t>
+    <t>user_id - ForeignKey()</t>
   </si>
 </sst>
 </file>
@@ -505,7 +505,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
